--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43408,6 +43408,41 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>10700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43443,6 +43443,41 @@
         <v>10700</v>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>733000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1212"/>
+  <dimension ref="A1:I1213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43478,6 +43478,41 @@
         <v>733000</v>
       </c>
     </row>
+    <row r="1213">
+      <c r="A1213" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1213" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1213" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1213" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>276400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1213"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43513,6 +43513,41 @@
         <v>276400</v>
       </c>
     </row>
+    <row r="1214">
+      <c r="A1214" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1214" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1214" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1214" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>148000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43548,6 +43548,41 @@
         <v>148000</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>235800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43583,6 +43583,41 @@
         <v>235800</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>170900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43618,6 +43618,41 @@
         <v>170900</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>99500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43653,6 +43653,41 @@
         <v>99500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>106000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43688,6 +43688,41 @@
         <v>106000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>109800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43723,6 +43723,41 @@
         <v>109800</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>12600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43758,6 +43758,41 @@
         <v>12600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>23100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43793,6 +43793,41 @@
         <v>23100</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>29900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43828,6 +43828,76 @@
         <v>29900</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>44500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43898,6 +43898,76 @@
         <v>44500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43968,6 +43968,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>72400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44003,6 +44003,41 @@
         <v>72400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44038,6 +44038,41 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>27000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44073,6 +44073,41 @@
         <v>27000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>53000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44108,6 +44108,78 @@
         <v>53000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44180,6 +44180,43 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44217,6 +44217,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91747,6 +91747,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>165000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2592"/>
+  <dimension ref="A1:I2593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91782,6 +91782,41 @@
         <v>165000</v>
       </c>
     </row>
+    <row r="2593">
+      <c r="A2593" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2593" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2593" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2593" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2593" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2593" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2593" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2593" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2593" t="n">
+        <v>90000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2593"/>
+  <dimension ref="A1:I2594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91817,6 +91817,43 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="2594">
+      <c r="A2594" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2594" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2594" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2594" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2594" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2594" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2594" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2594" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2594" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2594"/>
+  <dimension ref="A1:I2595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91854,6 +91854,41 @@
         </is>
       </c>
     </row>
+    <row r="2595">
+      <c r="A2595" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2595" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2595" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2595" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2595" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2595" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2595" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2595" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2595" t="n">
+        <v>192000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2595"/>
+  <dimension ref="A1:I2596"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91889,6 +91889,41 @@
         <v>192000</v>
       </c>
     </row>
+    <row r="2596">
+      <c r="A2596" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2596" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2596" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2596" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2596" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2596" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2596" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2596" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2596" t="n">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2596"/>
+  <dimension ref="A1:I2597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91924,6 +91924,43 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="2597">
+      <c r="A2597" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2597" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2597" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2597" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2597" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2597" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2597" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2597" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2597" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2597"/>
+  <dimension ref="A1:I2598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91961,6 +91961,43 @@
         </is>
       </c>
     </row>
+    <row r="2598">
+      <c r="A2598" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2598" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2598" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2598" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2598" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2598" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2598" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2598" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2598" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2598"/>
+  <dimension ref="A1:I2599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91998,6 +91998,41 @@
         </is>
       </c>
     </row>
+    <row r="2599">
+      <c r="A2599" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2599" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2599" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2599" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2599" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2599" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2599" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2599" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2599" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2599"/>
+  <dimension ref="A1:I2600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92033,6 +92033,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="2600">
+      <c r="A2600" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2600" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2600" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2600" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2600" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2600" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G2600" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2600" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2600" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2600"/>
+  <dimension ref="A1:I2601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92068,6 +92068,43 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2601">
+      <c r="A2601" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2601" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2601" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2601" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2601" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2601" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2601" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2601" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2601" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2601"/>
+  <dimension ref="A1:I2602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92105,6 +92105,43 @@
         </is>
       </c>
     </row>
+    <row r="2602">
+      <c r="A2602" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2602" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2602" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2602" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2602" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2602" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2602" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2602" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2602" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2602"/>
+  <dimension ref="A1:I2603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92142,6 +92142,41 @@
         </is>
       </c>
     </row>
+    <row r="2603">
+      <c r="A2603" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2603" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2603" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2603" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2603" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2603" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2603" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2603" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2603" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2603"/>
+  <dimension ref="A1:I2604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92177,6 +92177,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="2604">
+      <c r="A2604" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2604" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2604" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2604" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2604" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2604" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2604" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2604" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2604" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2604"/>
+  <dimension ref="A1:I2605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92212,6 +92212,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="2605">
+      <c r="A2605" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2605" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2605" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2605" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2605" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2605" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2605" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2605" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2605" t="n">
+        <v>12000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/8346.xlsx
+++ b/data/8346.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2605"/>
+  <dimension ref="A1:I2606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92247,6 +92247,41 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="2606">
+      <c r="A2606" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2606" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2606" t="inlineStr">
+        <is>
+          <t>8346</t>
+        </is>
+      </c>
+      <c r="D2606" t="inlineStr">
+        <is>
+          <t>PRKCORP</t>
+        </is>
+      </c>
+      <c r="E2606" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2606" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2606" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2606" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2606" t="n">
+        <v>2300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
